--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fat4-Dchs1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fat4-Dchs1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.092285666666667</v>
+        <v>18.63888133333333</v>
       </c>
       <c r="H2">
-        <v>27.276857</v>
+        <v>55.91664400000001</v>
       </c>
       <c r="I2">
-        <v>0.4104940601903898</v>
+        <v>0.5880476104010496</v>
       </c>
       <c r="J2">
-        <v>0.4104940601903898</v>
+        <v>0.5880476104010497</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.273683333333334</v>
+        <v>6.060959</v>
       </c>
       <c r="N2">
-        <v>18.82105</v>
+        <v>18.182877</v>
       </c>
       <c r="O2">
-        <v>0.5180127793393899</v>
+        <v>0.5093955725568765</v>
       </c>
       <c r="P2">
-        <v>0.5180127793393901</v>
+        <v>0.5093955725568765</v>
       </c>
       <c r="Q2">
-        <v>57.04212104887223</v>
+        <v>112.9694955671987</v>
       </c>
       <c r="R2">
-        <v>513.37908943985</v>
+        <v>1016.725460104788</v>
       </c>
       <c r="S2">
-        <v>0.2126411690215347</v>
+        <v>0.2995488491909457</v>
       </c>
       <c r="T2">
-        <v>0.2126411690215347</v>
+        <v>0.2995488491909458</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.092285666666667</v>
+        <v>18.63888133333333</v>
       </c>
       <c r="H3">
-        <v>27.276857</v>
+        <v>55.91664400000001</v>
       </c>
       <c r="I3">
-        <v>0.4104940601903898</v>
+        <v>0.5880476104010496</v>
       </c>
       <c r="J3">
-        <v>0.4104940601903898</v>
+        <v>0.5880476104010497</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>16.366925</v>
       </c>
       <c r="O3">
-        <v>0.4504677639392779</v>
+        <v>0.4585214502287212</v>
       </c>
       <c r="P3">
-        <v>0.450467763939278</v>
+        <v>0.4585214502287212</v>
       </c>
       <c r="Q3">
-        <v>49.60425252830279</v>
+        <v>101.6870576221889</v>
       </c>
       <c r="R3">
-        <v>446.4382727547251</v>
+        <v>915.1835185997002</v>
       </c>
       <c r="S3">
-        <v>0.1849143414043203</v>
+        <v>0.2696324431246233</v>
       </c>
       <c r="T3">
-        <v>0.1849143414043203</v>
+        <v>0.2696324431246233</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.092285666666667</v>
+        <v>18.63888133333333</v>
       </c>
       <c r="H4">
-        <v>27.276857</v>
+        <v>55.91664400000001</v>
       </c>
       <c r="I4">
-        <v>0.4104940601903898</v>
+        <v>0.5880476104010496</v>
       </c>
       <c r="J4">
-        <v>0.4104940601903898</v>
+        <v>0.5880476104010497</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>1.145202</v>
       </c>
       <c r="O4">
-        <v>0.03151945672133213</v>
+        <v>0.03208297721440233</v>
       </c>
       <c r="P4">
-        <v>0.03151945672133213</v>
+        <v>0.03208297721440233</v>
       </c>
       <c r="Q4">
-        <v>3.470834576679334</v>
+        <v>7.115094726898668</v>
       </c>
       <c r="R4">
-        <v>31.237511190114</v>
+        <v>64.03585254208801</v>
       </c>
       <c r="S4">
-        <v>0.0129385497645349</v>
+        <v>0.01886631808548061</v>
       </c>
       <c r="T4">
-        <v>0.0129385497645349</v>
+        <v>0.01886631808548062</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>28.597882</v>
       </c>
       <c r="I5">
-        <v>0.4303743900928785</v>
+        <v>0.3007497405000055</v>
       </c>
       <c r="J5">
-        <v>0.4303743900928785</v>
+        <v>0.3007497405000055</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.273683333333334</v>
+        <v>6.060959</v>
       </c>
       <c r="N5">
-        <v>18.82105</v>
+        <v>18.182877</v>
       </c>
       <c r="O5">
-        <v>0.5180127793393899</v>
+        <v>0.5093955725568765</v>
       </c>
       <c r="P5">
-        <v>0.5180127793393901</v>
+        <v>0.5093955725568765</v>
       </c>
       <c r="Q5">
-        <v>59.80468522401111</v>
+        <v>57.77686342961265</v>
       </c>
       <c r="R5">
-        <v>538.2421670161</v>
+        <v>519.9917708665139</v>
       </c>
       <c r="S5">
-        <v>0.2229394339685068</v>
+        <v>0.1532005862583323</v>
       </c>
       <c r="T5">
-        <v>0.2229394339685068</v>
+        <v>0.1532005862583323</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>28.597882</v>
       </c>
       <c r="I6">
-        <v>0.4303743900928785</v>
+        <v>0.3007497405000055</v>
       </c>
       <c r="J6">
-        <v>0.4303743900928785</v>
+        <v>0.3007497405000055</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>16.366925</v>
       </c>
       <c r="O6">
-        <v>0.4504677639392779</v>
+        <v>0.4585214502287212</v>
       </c>
       <c r="P6">
-        <v>0.450467763939278</v>
+        <v>0.4585214502287212</v>
       </c>
       <c r="Q6">
         <v>52.00659887253889</v>
@@ -818,10 +818,10 @@
         <v>468.05938985285</v>
       </c>
       <c r="S6">
-        <v>0.1938697891618695</v>
+        <v>0.1379002071699741</v>
       </c>
       <c r="T6">
-        <v>0.1938697891618695</v>
+        <v>0.1379002071699741</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>28.597882</v>
       </c>
       <c r="I7">
-        <v>0.4303743900928785</v>
+        <v>0.3007497405000055</v>
       </c>
       <c r="J7">
-        <v>0.4303743900928785</v>
+        <v>0.3007497405000055</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>1.145202</v>
       </c>
       <c r="O7">
-        <v>0.03151945672133213</v>
+        <v>0.03208297721440233</v>
       </c>
       <c r="P7">
-        <v>0.03151945672133213</v>
+        <v>0.03208297721440233</v>
       </c>
       <c r="Q7">
         <v>3.638927962462666</v>
@@ -880,10 +880,10 @@
         <v>32.750351662164</v>
       </c>
       <c r="S7">
-        <v>0.01356516696250219</v>
+        <v>0.009648947071699089</v>
       </c>
       <c r="T7">
-        <v>0.0135651669625022</v>
+        <v>0.009648947071699091</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.524702666666667</v>
+        <v>3.524702666666666</v>
       </c>
       <c r="H8">
         <v>10.574108</v>
       </c>
       <c r="I8">
-        <v>0.1591315497167317</v>
+        <v>0.1112026490989449</v>
       </c>
       <c r="J8">
-        <v>0.1591315497167317</v>
+        <v>0.1112026490989449</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.273683333333334</v>
+        <v>6.060959</v>
       </c>
       <c r="N8">
-        <v>18.82105</v>
+        <v>18.182877</v>
       </c>
       <c r="O8">
-        <v>0.5180127793393899</v>
+        <v>0.5093955725568765</v>
       </c>
       <c r="P8">
-        <v>0.5180127793393901</v>
+        <v>0.5093955725568765</v>
       </c>
       <c r="Q8">
-        <v>22.11286837482222</v>
+        <v>21.36307834985733</v>
       </c>
       <c r="R8">
-        <v>199.0158153734</v>
+        <v>192.2677051487159</v>
       </c>
       <c r="S8">
-        <v>0.08243217634934852</v>
+        <v>0.05664613710759845</v>
       </c>
       <c r="T8">
-        <v>0.08243217634934853</v>
+        <v>0.05664613710759846</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.524702666666667</v>
+        <v>3.524702666666666</v>
       </c>
       <c r="H9">
         <v>10.574108</v>
       </c>
       <c r="I9">
-        <v>0.1591315497167317</v>
+        <v>0.1112026490989449</v>
       </c>
       <c r="J9">
-        <v>0.1591315497167317</v>
+        <v>0.1112026490989449</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>16.366925</v>
       </c>
       <c r="O9">
-        <v>0.4504677639392779</v>
+        <v>0.4585214502287212</v>
       </c>
       <c r="P9">
-        <v>0.450467763939278</v>
+        <v>0.4585214502287212</v>
       </c>
       <c r="Q9">
         <v>19.22951473087778</v>
@@ -1004,10 +1004,10 @@
         <v>173.0656325779</v>
       </c>
       <c r="S9">
-        <v>0.07168363337308818</v>
+        <v>0.05098879993412379</v>
       </c>
       <c r="T9">
-        <v>0.07168363337308818</v>
+        <v>0.0509887999341238</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.524702666666667</v>
+        <v>3.524702666666666</v>
       </c>
       <c r="H10">
         <v>10.574108</v>
       </c>
       <c r="I10">
-        <v>0.1591315497167317</v>
+        <v>0.1112026490989449</v>
       </c>
       <c r="J10">
-        <v>0.1591315497167317</v>
+        <v>0.1112026490989449</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>1.145202</v>
       </c>
       <c r="O10">
-        <v>0.03151945672133213</v>
+        <v>0.03208297721440233</v>
       </c>
       <c r="P10">
-        <v>0.03151945672133213</v>
+        <v>0.03208297721440233</v>
       </c>
       <c r="Q10">
-        <v>1.345498847757334</v>
+        <v>1.345498847757333</v>
       </c>
       <c r="R10">
         <v>12.109489629816</v>
       </c>
       <c r="S10">
-        <v>0.005015739994295038</v>
+        <v>0.003567712057222626</v>
       </c>
       <c r="T10">
-        <v>0.005015739994295039</v>
+        <v>0.003567712057222627</v>
       </c>
     </row>
   </sheetData>
